--- a/ПРАКТИКА 6/Модели.xlsx
+++ b/ПРАКТИКА 6/Модели.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F7D19-A59F-44E1-94D2-015E3972FB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Графики 1 модели</t>
   </si>
@@ -23,9 +24,6 @@
   </si>
   <si>
     <t>Графики 3 модели</t>
-  </si>
-  <si>
-    <t>layer size</t>
   </si>
   <si>
     <t>first hidden layer size</t>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,12 +147,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,18 +177,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -221,18 +225,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -263,18 +273,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -305,18 +321,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYIAAAEWCAYAAABrDZDcAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADh0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uMy4yLjAsIGh0dHA6Ly9tYXRwbG90bGliLm9yZy8GearUAAAgAElEQVR4nO3dd3xV9fnA8c+TTXJDgCxGCGEEBARBorgn7tnaOuqsto4WtbbWapej9letbd0d7lFHnRUVtYoDEATClL1DElYG2fvm+f3xvYEQQkIglws5z/v1yot7xj33ObnhPOc7j6gqxhhjvCss1AEYY4wJLUsExhjjcZYIjDHG4ywRGGOMx1kiMMYYj7NEYIwxHmeJwJh2iEiGiKiIROzBvteIyPT9EZcxncUSgelSRGS9iNSJSFKL9fMDF/OM0ES2U0KZ32J9UiDm9a2850sR2SYi0S3WvxB4T0Wzn4VBPgXTRVkiMF3ROuCypgURGQXEhi6cXcSKyKHNln+Ai3kngaR1PKDA+a0c58+q6mv2c1gwgjVdnyUC0xW9DFzVbPlq4KXmO4hIgoi8JCIFIpIjIr8VkbDAtnAR+YuIFIrIWuCcVt77rIhsEpF8EblfRMI7GN/VzZavahlfs/XfAC+02N+YTmWJwHRF3wDdRWR44AJ9KfDvFvs8DiQAg4ATcRfdHwa2/Rg4FxgLZAHfa/HeF4AGYEhgn9OBH3Ugvn8DlwYSzgjAB8xqZb+rgFcCP2eISGoHPsOYPWaJwHRVTaWC04BlQH7ThmbJ4S5VLVfV9cBfgSsDu1wMPKKquapaDPyp2XtTgbOBn6lqpapuBR4OHG9P5QErgAmBGF9uuYOIHAcMAN5Q1bnAGlwVUnO3i0hJs58XOxCDMdu12wvCmIPUy8BUYCC7VrskAZFATrN1OUC/wOu+QG6LbU0GBN67SUSa1oW12H9PvARcAxyDawcY2mL71cD/VLUwsPxqYN3Dzfb5i6r+toOfa8wuLBGYLklVc0RkHe7u/boWmwuBetxFfWlgXTo7Sg2bgP7N9k9v9joXqAWSVLVhH0J8G3gCmKuqG0RkeyIQkW64Ukm4iGwOrI4GeojIYapqvYNMp7KqIdOVXQecoqqVzVeqqh94A/ijiMSLyADg5+xoR3gDuEVE0kSkJ3Bns/duAv4H/FVEuotImIgMFpETOxJYIKZTaL1t4ULAD4wAxgR+hgPT2LkR3JhOYYnAdFmqukZVs3ez+WagElgLTMdVvTwX2PY08AmwEJgHvNPivVcBUbjSxDbgLaDPXsSXraprWtl0NfC8qm5Q1c1NP7gSxOXNBrbd0WIcQWErxzKmXWIPpjHGGG+zEoExxnicJQJjjPE4SwTGGONxlgiMMcbjDrpxBElJSZqRkRHqMIwx5qAyd+7cQlVNbm1bUBOBiJwJPAqEA8+o6gMttg/AddlLBoqBK1Q1r61jZmRkkJ29ux6BxhhjWiMiObvbFrSqocB8Lk8CZ+EGxlwWmGCrub8AL6nqaOA+ms3pYowxZv8IZhvBkcBqVV2rqnXA68AFLfYZAXweeP1FK9uNMcYEWTATQT92nogrjx2TejVZCHw38Po7QLyIJLY8kIhcLyLZIpJdUFAQlGCNMcarQt1YfDvwhIhcg5spMh83x8pOVPUp4CmArKwsGwptjOmQ+vp68vLyqKmpCXUoQRcTE0NaWhqRkZF7/J5gJoJ8dp7BMY1mc8IDqOpGAiUCEfEBF6lqSRBjMsZ4UF5eHvHx8WRkZNBs+vAuR1UpKioiLy+PgQMH7vH7glk1NAfIFJGBIhKFe3DHpOY7BB7a3RTDXeyY9MsYYzpNTU0NiYmJXToJAIgIiYmJHS75BC0RBOZqn4ibxXEZ7klLS0TkPhFpehD3ScAKEVkJpAJ/DFY8xhhv6+pJoMnenGdQ2whUdTIwucW63zd7/RZuCt/gy5kJqz6BU+8Gj/xBGGPMnvDOFBMb58P0h6F6W6gjMcZ4TFFREWPGjGHMmDH07t2bfv36bV+uq6tr873Z2dnccsstQY0v1L2G9p/ufd2/ZfkQ2yu0sRhjPCUxMZEFCxYAcM899+Dz+bj99tu3b29oaCAiovXLcVZWFllZWUGNzzslgu6BIQxlG0MbhzHGANdccw033ngj48eP54477mD27NkcffTRjB07lmOOOYYVK1YA8OWXX3LuuecCLolce+21nHTSSQwaNIjHHnusU2LxZonAGONZ976/hKUbyzr1mCP6dufu80Z2+H15eXnMmDGD8PBwysrKmDZtGhEREXz22Wf8+te/5u23397lPcuXL+eLL76gvLycYcOGcdNNN3VozEBrvJMIfKkgYVYiMMYcML7//e8THh4OQGlpKVdffTWrVq1CRKivr2/1Peeccw7R0dFER0eTkpLCli1bSEtL26c4vJMIwiPA19sSgTEetzd37sESFxe3/fXvfvc7Tj75ZN59913Wr1/PSSed1Op7oqOjt78ODw+noaFhn+PwThsBuOohqxoyxhyASktL6dfPtWW+8MIL+/WzPZgIrERgjDnw3HHHHdx1112MHTu2U+7yO0JUD6453LKysnSvH0zz0Z0w7yX4db4NKjPGQ5YtW8bw4cNDHcZ+09r5ishcVW21H6r3SgT1lVDbuT0GjDHmYOa9RABQtim0cRhjzAHEY4mgaVCZNRgbY0wTjyWCphKBNRgbY0wTbyWC+D7uX0sExhiznbcSQUQUxKVY1ZAxxjTjnZHFTWwsgTFmPysqKuLUU08FYPPmzYSHh5OcnAzA7NmziYqKavP9X375JVFRURxzzDFBic+DiaAfbFsf6iiMMR7S3jTU7fnyyy/x+XxBSwTeqhoCm2bCGHNAmDt3LieeeCLjxo3jjDPOYNMm1639scceY8SIEYwePZpLL72U9evX889//pOHH36YMWPGMG3atE6PxYMlgr5QUwJ1lRAV1/7+xpiu5aM7YfO3nXvM3qPgrAf2eHdV5eabb+a9994jOTmZ//znP/zmN7/hueee44EHHmDdunVER0dTUlJCjx49uPHGGztciugIDyaCprEEmyBpSGhjMcZ4Um1tLYsXL+a0004DwO/306eP69U4evRoLr/8ci688EIuvPDC/RKPBxNBswfUWCIwxns6cOceLKrKyJEjmTlz5i7bPvzwQ6ZOncr777/PH//4R779tpNLL60IahuBiJwpIitEZLWI3NnK9nQR+UJE5ovIIhE5O5jxADaozBgTctHR0RQUFGxPBPX19SxZsoTGxkZyc3M5+eSTefDBByktLaWiooL4+HjKy8uDFk/QEoGIhANPAmcBI4DLRGREi91+C7yhqmOBS4G/Byue7eyRlcaYEAsLC+Ott97iV7/6FYcddhhjxoxhxowZ+P1+rrjiCkaNGsXYsWO55ZZb6NGjB+eddx7vvvvuQdlYfCSwWlXXAojI68AFwNJm+yjQPfA6AQj+bXpkN+jW00oExpiQuOeee7a/njp16i7bp0+fvsu6oUOHsmjRoqDFFMyqoX5AbrPlvMC65u4BrhCRPGAycHNrBxKR60UkW0SyCwoK9j2y7v0sERhjTECoxxFcBrygqmnA2cDLIrJLTKr6lKpmqWpW02i8fWJjCYwxZrtgJoJ8oH+z5bTAuuauA94AUNWZQAyQFMSYHJtmwhjPOdiexri39uY8g5kI5gCZIjJQRKJwjcGTWuyzATgVQESG4xJBJ9T9tKN7P6gqhPqaoH+UMSb0YmJiKCoq6vLJQFUpKioiJiamQ+8LWmOxqjaIyETgEyAceE5Vl4jIfUC2qk4CfgE8LSK34RqOr9H98U019Rwq3wi9BgX944wxoZWWlkZeXh6d0sZ4gIuJiSEtLa1D7wnqgDJVnYxrBG6+7vfNXi8Fjg1mDK1qGl1cmm+JwBgPiIyMZODAgaEO44AV6sbi0EgINF1Yg7Exxng0ETRVDZXmhTYOY4w5AHgzEUTFQrdelgiMMQavJgKAhDSrGjLGGLyeCEotERhjjHcTQfd+VjVkjDF4OREk9IPaUqgN3tSuxhhzMPBwIgh0IbXqIWOMx3k3EWx/ZKVVDxljvM27iSChaXSxJQJjjLd5JhHU1PtZtaVZe0B8H5AwqxoyxnieZxLBU1PXctrDU6mqa3ArwiPB19vGEhhjPM8ziSAzxQfA6q0VO1Ym9IPS3N28wxhjvME7iSA1HoCVW5onAhtUZowxnkkEGYmxRIWH7dxO0L2fqxrq4g+rMMaYtngmEUSEhzEoOY5VW1uUCBpqoKo4dIEZY0yIeSYRgKseWtm8RJAQeIqPtRMYYzzMU4lgaIqPvG3VVNYGeg5tH1Rm7QTGGO/yVCLITG3Rc2h7icASgTHGuzyWCJp6DgWqh2KTIDzKqoaMMZ4W1EQgImeKyAoRWS0id7ay/WERWRD4WSkiJcGMZ0CvQM+hphJBWNiOnkPGGONREcE6sIiEA08CpwF5wBwRmaSqS5v2UdXbmu1/MzA2WPHAjp5DuzQYW9WQMcbDglkiOBJYraprVbUOeB24oI39LwNeC2I8AAxNjWdV80FlViIwxnhcMBNBP6B55XteYN0uRGQAMBD4PIjxADA01Ud+SbOeQwlpULYRGv3B/mhjjDkgHSiNxZcCb6lqq1djEbleRLJFJLugoGCfPqipwXh7O0FCP1A/lG/ep+MaY8zBKpiJIB/o32w5LbCuNZfSRrWQqj6lqlmqmpWcnLxPQTVNPre9naBpLEH5pn06rjHGHKyCmQjmAJkiMlBEonAX+0ktdxKRQ4CewMwgxrLdgMQ4oiKazTkUm+T+rSraHx9vjDEHnKAlAlVtACYCnwDLgDdUdYmI3Cci5zfb9VLgddX9M/NbeJgwONm3YxbS2F7u38rC/fHxxhhzwAla91EAVZ0MTG6x7vctlu8JZgytGZrqY866wERzcU0lAksExhhvOlAai/eroanxbCytobymHqJ8EB5tJQJjjGd5MhEMTo4DIKeoCkRcqcDaCIwxHuXJRDAg0SWC9UWVbkVsoiUCY4xneTQRxAKBEgG4RGBVQ8YYj/JkIoiNiiAlPpr1hYESQVySNRYbYzzLk4kAXKlgR4kgCSqtasgY400eTgRx5BQ3lQgSoa4cGmpDG5QxxoSAZxNBRmIsW8pqqaprsNHFxhhP82wiaOo5tKG4yjUWgzUYG2M8ybOJIKOpC2lhlY0uNsZ4mmcTQfr2LqSVO6qGrMHYGONBnk0ECd0i6RkbSU6xlQiMMd7m2UQAgZ5DRZUQ0wMkzNoIjDGe5OlEkJEY69oIwsKgWy/rNWSM8SRPJ4IBiXFsLK2mtsFvo4uNMZ7l6USQkRSLKuQWV9voYmOMZ3k6EaT3ahpLUOlGF1uJwBjjQZ5OBBmBLqTrC6sCJQJLBMYY7/F0IugVF0V8dITrORSXBNXboNEf6rCMMWa/8nQiEBEGJMWyvqhpmgl1ycAYYzzE04kAmo0lsPmGjDEeFdREICJnisgKEVktInfuZp+LRWSpiCwRkVeDGU9rBvSKJW9bNf5ugURgDcbGGI+JCNaBRSQceBI4DcgD5ojIJFVd2myfTOAu4FhV3SYiKcGKZ3cyEuNoaFS2+H30BSsRGGM8J5glgiOB1aq6VlXrgNeBC1rs82PgSVXdBqCqW4MYT6syklwX0nXV3dwKG11sjPGYYCaCfkBus+W8wLrmhgJDReRrEflGRM5s7UAicr2IZItIdkFBQacGOSjZJYJVZVFuhSUCY4zHhLqxOALIBE4CLgOeFpEeLXdS1adUNUtVs5KTkzs1gMS4KLrHRLC6uBaiE6xqyBjjOcFMBPlA/2bLaYF1zeUBk1S1XlXXAStxiWG/EREGJftYW2Cji40x3hTMRDAHyBSRgSISBVwKTGqxz39xpQFEJAlXVbQ2iDG1alBynEsENrrYGONBQUsEqtoATAQ+AZYBb6jqEhG5T0TOD+z2CVAkIkuBL4Bfqup+r6QfnOxjc1kNDTYVtTHGg4LWfRRAVScDk1us+32z1wr8PPATMoMCPYfKJYGeVQtDGYoxxux3oW4sPiAMSvYBUKjxrmpINcQRGWPM/mOJABiQGIsIbKyPg8Z6qC0LdUjGGLPftJkIRKR7G9vSOz+c0IiJDCetZzc21Lhpqa3B2BjjJe2VCL5seiEiU1ps+2+nRxNCg5J8rKqIdgvWYGyM8ZD2EoE0e92rjW0HvUHJcSwuC0wzUb4ptMEYY8x+1F4i0N28bm35oDYoKY7VdYFcty0ntMEYY8x+1F730RQR+Tnu7r/pNYHlzp3rIcQGJfsoI46GqO5ElGwIdTjGGLPftJcIngbiW3kN8ExQIgqRpsnnyqL70MsSgTHGQ9pMBKp67+62icgRnR9O6PTuHkNsVDhbwlPpVWJVQ8YY7+jQOAIRGSEifxCR1cA/ghRTSIgIA5PiyPEnQ8kGG1RmjPGMdqeYEJEM3BTRlwH1wAAgS1XXBzOwUBiU7GP52h6cWV/lxhL4ulQziDHGtKq9AWUzgQ9xCeMiVR0HlHfFJACu59DiqsDjEKydwBjjEe1VDW3BNRCnsqOXUJetMxmUHEduY+A0S9aHNBZjjNlf2kwEqnohMAqYC9wjIuuAniJy5P4Ibn8bnOwjT5sSgZUIjDHe0G4bgaqWAs8Dz4tIKnAx8LCIpKtq/7bffXAZnOyjSrpRHZFANxtUZozxiA71GlLVLar6uKoeCxwXpJhCpltUOP17xrI1vLeVCIwxntFmiUBEWj5asqXz29l+0Bma6iMnN4kBNpbAGOMR7VUNHQ3kAq8Bs+hiE821ZkhKPCtW9+T4kmyksRHC7JENxpiurb2rXG/g18ChwKPAaUChqn6lql8FO7hQyEzxkdOYjPhroWJLqMMxxpiga6/XkF9VP1bVq4GjgNXAlyIycb9EFwKZqT7yNMktWDuBMcYD9mRkcTRwDm5kcQbwGPBucMMKncHJPnI1xS2UbID08aENyBhjgqy9kcUvATOBw4F7VfUIVf2DqubvycFF5EwRWSEiq0Xkzla2XyMiBSKyIPDzo706i04UFx2Bdg/0irVBZcYYD2ivRHAFUAncCtwisr2tWABV1baeaRwOPIlrV8gD5ojIJFVd2mLX/6jqAVXVlN47keINPWw6amOMJ7Q3DfW+dJk5ElitqmsBROR14AKgZSI44AxNjWfD+iR6bsvp+t2kjDGeF8y+kf1wXU+b5AXWtXSRiCwSkbdEpNWRyiJyvYhki0h2QUFBMGLdyZAUHxsak2kotrEExpiuL9Sd5N8HMlR1NPAp8GJrO6nqU6qapapZycnBnxo6M8XNORReng+N/qB/njHGhFIwE0E+0PwOPy2wbjtVLVLV2sDiM8C4IMazx4ak+MjVZMIa66F8U6jDMcaYoApmIpgDZIrIQBGJAi4FdpqyQkT6NFs8H1gWxHj2WHxMJFWxgVosm3zOGNPFtTuOYG+pakNg4NknQDjwnKouEZH7gGxVnYTriXQ+0AAUA9cEK56OikocAJuB0rxQh2KMMUEVtEQAoKqTgckt1v2+2eu7gLuCGcPeSuqdDpuhsWJLyBtSjDEmmOwatxsD+qRSq5FUFFkbgTGma7NEsBuZveMpIIHKoj0aRG2MMQctSwS7cUjv7hRqArWlNgOpMaZrs0SwG3HREdREJyKVW0MdijHGBJUlgjaEx6cSV1dEY6OGOhRjjAkaSwRt8CX2oSdlrNpcGupQjDEmaCwRtCG5TzrhoixZsy7UoRhjTNBYImhDYkoaAGvXWyIwxnRdlgjaID73pLItG+25BMaYrssSQVt8qQDUl26hpKouxMEYY0xwWCJoi89NeZ0kpczfUBLiYIwxJjgsEbQlujsaHk2KlDBvw7ZQR2OMMUFhiaAtIogvlcGxVZYIjDFdliWC9viSSY+uZMGGEvw2sMwY0wVZImhPXArJUkplnZ+VW8pDHY0xxnQ6SwTt8SUT31AMwNwcqx4yxnQ9lgja40slrLqI3r4IZq0rDnU0xhjT6SwRtCcuBdFGThkQyay1RahaO4ExpmuxRNCewFiCY3v72Vpey7rCyhAHZIwxncsSQXsCo4vHJtYDWPWQMabLsUTQnjg331Cf8DKSfNF8s7YoxAEZY0znCmoiEJEzRWSFiKwWkTvb2O8iEVERyQpmPHslUDUklQUcNagXs9YWWzuBMaZLCVoiEJFw4EngLGAEcJmIjGhlv3jgVmBWsGLZJ9HdITwaKrZw1KBENpfVkFNUFeqojDGm0wSzRHAksFpV16pqHfA6cEEr+/0BeBCoCWIse0/EtRNUuBIBwKx1Vj1kjOk6gpkI+gG5zZbzAuu2E5HDgf6q+mFbBxKR60UkW0SyCwoKOj/S9viSoXIrg5N9JPmi+GatNRgbY7qOkDUWi0gY8DfgF+3tq6pPqWqWqmYlJycHP7iW4lKgYisiwviBiTaewBjTpQQzEeQD/ZstpwXWNYkHDgW+FJH1wFHApAOzwdglAoCjBvViY2kNucXVIQ7KGGM6RzATwRwgU0QGikgUcCkwqWmjqpaqapKqZqhqBvANcL6qZgcxpr3jS4GqQmj0M35QIgD3fbCEV2dtYFFeiZUOjDEHtYhgHVhVG0RkIvAJEA48p6pLROQ+IFtVJ7V9hANIXApoI1QVk5mSxLmj+/DVygI+W+ZKCbeemsltpw0NcZDGGLN3gpYIAFR1MjC5xbrf72bfk4IZyz4JPMSeii2IL5knfnA4qkpucTV3vrOIN7Nz+dmETEQktHEaY8xesJHFe6IpEVRu3b5KREhPjOWiw9PYWFrDwrzSEAVnjDH7xhLBnohrKhFs3WXThOGpRIQJHy3etJ+DMsaYzmGJYE8kpEFMAix7f9dNsZEcMySJjxdvtkZjY8xByRLBnoiMgfE3wvIPYMvSXTafdWhvcoqqWLbJHmVpjDn4WCLYU+NvhCgfTPvrLptOH5FKmMDHVj1kjDkIWSLYU7G94IjrYMk7ULh6p02JvmiOHNiLjxZvDlFwxhiz9ywRdMTREyE8CqY/vMumsw7tw6qtFazeWhGCwIwxZu9ZIugIXwqMuwYWvQ7bcnbadMbI3gDc8dZCfvXWIn7338XMsofYGGMOApYIOuqYW0DCYOpDO63unRDDZUemU1hRx5crt/LW3Dx+/FI2xZV1IQrUGGP2jCWCjkroB0f8CBa8AluX77TpT98dxdQ7TmbWrycwaeKxVNb5+dunK3ba58UZ6/njh7v2PDLGmFCxRLA3jr/d9SD67J7d7pKZGs+VRw3g1VkbWL65DIC35+Zx96QlPD1tHTPWFO6nYI0xpm2WCPZGXCIc9zNY+RHkzNjtbj+bkEn3bpHc9/5SZq4p4s53FnH0oET6JMTw549X2AA0Y8wBwRLB3hp/E8T3hU9/D9Ul8PWj8PCh8N5ECFzge8RGcduEocxYU8Q1z88mvVcs/7xiHLeemsmC3BI+XbolxCdhjDGWCPZeVCycfBfkzYG/DnMJISIa5r8M8/+9fbfLx6czLDUeX3QEz19zJAmxkXxvXBqDkuJ46JMV+Bv3vlRQXlPfGWdijPE4SwT7YszlMOxsGH4eXP8V/HQ2DDwRJv8Sti4DICI8jDduOJr/3XYC6Ymx29f94vRhrNpawX/n57f1CXz07SbOeWwaucVVO62fvqqQw//wKe8v3BicczPGeIYcbPXUWVlZmp194D3EbLvyLfDPYyE2Ea6ZDFuXwIZvoKYUeqRDQn9IGU5jjwzOf3I6OYVVnDWqN6eP6M1xmUnERIZvP9TUlQVc9+Ic6v3KhOEpPHP1EQA0+Bs569FprNpawYDEWKb8/EQiwi2nG2N2T0TmqmqrjwIO6oNpPCk+Fb77NLz8HXhoUGCluBHJ/trtu4WljOClgafzamw6M79dycNzhfuiUzl7/CiuPTaD3G3V3PDyXIakxDNheAqPf76az5ZuYcKIVF6ZtYFVWyu49Ij+vD4nl3fm5XPxEf1bj8cYY9phJYJgmf8KFK+B9KMh7Qg3jXVlAZTkQu4sN5Npzgxgx++/VmI4r/Y+1ks6keFCUnw0b954ND1jozj70WlU1/t568ZjOOORqYzs251XfjSeC5/8msKKOr64/SSiIqxUYIxpXVslAksEoVRRAFuXgr8e6qvgg59RG9eHP/V5gvmbqnjisrH07+XaFWauKeKyp79hQLyQW6FMvvV4DundnS9XbOWa5+dw/4WHcsVRA0J8QsaYA5VVDR2ofMngO3HHclg40a//gHuGTYLv3r3TrkcPTuS3g9dwZd69fDDkDg7pfQ4AJw5NZtyAnjw9ZQnfG5e2UxuDMcbsCatLOJAccg6MvRK+fgRyZu68rbacH5b+nSjx8938P8PqzwAQ4KH+M/is7goe/MMdXPP8bP711RpWb7WH5Bhj9kxQq4ZE5EzgUSAceEZVH2ix/Ubgp4AfqACuV9U2J+LpUlVDrakth38eB42N8MPJ0CPQCPzJb2DmE3DFO/Dp3bBtHVz5LmQ/DwtfpSEijnoVLo/5O/OKXEFvaKqPs0f14cShyYzsm0BURBjlNfW8Oz+fV2dtoKrOzyG94xnepzunDk9hdFqPEJ64MSaYQtJGICLhwErgNCAPmANc1vxCLyLdVbUs8Pp84CeqemZbx+3yiQAgfy689B2I7AaXvwESDv86AcZeAec/BmWb4JkJUJbn9j/pLhh+vksgh1/FphP+xCeLNzP5283MySlGFaIiwhjZtzsrN5dTWefnsLQE0nrGsmxTGeuKKgG4YvwAfnnmMLrHRIbw5I0xwRCqRHA0cI+qnhFYvgtAVf+0m/0vA65S1bPaOq4nEgG4AWmvfB+qiiEhDaoKYWK2e1IauJlPP/w5HPUTGH6uW/fRnTDrn3DDVOgzGoCC8lrm5hQzN2cbC3JL6N8rlquOzmBM/x13/+Vbc3hm2joez64kOT6aHx8/iD4J3Uj0RZGRGEfvhJj9ffbGmE4WqkTwPeBMVf1RYPlKYLyqTmyx30+BnwNRwCmquqqVY10PXA+Qnp4+Licnp+UuXVP5Znj1Yti0EC74O4y9vO39q0vg8cMhaZirVhJp/zO2rYenToZoH4sunMKv3lvBsk1lO+0yql8CZ4xMJTM1noW5JWTnbGNrWQ1HDUrkpGHJHDskiXgrRRhzQDugE0Gz/TNFa1IAABpPSURBVH8AnKGqV7d1XM+UCJrUVrhxB4NP2bML+9wX4P1bIWUkxCVBt54wZAKMvgQionY99rOnu/EODTVwzl/RrOsoKK+lqLKO4so6FuWV8smSzSzILQEgIkwY2bc7yfExzFpbRHltA9ERYfzo+IHcdNIQfNGufWJRXgkz1xRx3mF96dujWyf/UpzVWyvYVFrN8ZnJQTm+MQeUhrpd/w93wMFSNRQGbFPVhLaO67lE0FGNfvji/2DLYqjeBuWboGQDdO/nnrk8+hI3jXZjI7x5FSz/EC5/C776M5TkwC3zXdtEC5tLa8jbVsXIvgl0i3JdVOv9jczN2carszYwaeFGknxRXJzVn6mrClic70oV8TER/OGCQ7lgTF9EhNKqeuZuKGZ0Wg+SfNF7fZqVtQ2c/vBUNpfVMGnisYzs2+afjTEHt5pSeOJIOO1eOOzSvTpEqBJBBK6x+FQgH9dY/ANVXdJsn8ymqiAROQ+4e3eBNrFE0EGqsGYKTHsYcqa7dQn9Ib4P5M2G0/8Ix0yEddPgxXPhjD/B0T/p8McsyC3hjx8uZc76bRzSO54fjE/n8PSe3D1pCXNztnHysGSq6/3MWb8Nf6MSExnGZUemc8MJg3dpg9hSVsM3a4tI7xXL2PSerX7e/R8s5Znp60joFkn/Xt3470+OtfmWTNc1/WH3IKwbpkKfw/bqECEbWSwiZwOP4LqPPqeqfxSR+4BsVZ0kIo8CE4B6YBswsXmiaI0lgn2QPxfWfw2bFsDmbyHzdDj9/h1VTi+e70Y637IAGmph3otQmgeDT4ZBrh2hLapKQXktyfHRSOCY/kblqalreXTKSjIS4zh1eApHZPTig0WbeHd+PuEiDE7x0Ssukh7doli5pZwNW4v5Q8TzfKsDyR1yObefPoxD++2441+cX8r5T0znkiPSOT4ziZ+8Mo+7zjqEG04cDLiSypayGvomdCMsbA+q04w5kNXXwCOjoPcouPKdvT6MTTFh9kzubHj2NOh7OGxZ4ibJi4yD+ko3aV7fsW5W1ZgEV9U04gL3x7kHbRequj05bP+44ipenLGe9UWVFFXWsa2yjoE9I7in+gEGFE3HL+Fcog+SXdOXUw5J4Yqj0jkuI57Ln/qadWXClJ+fSPduEdzw8lwaVn3GQ4cX81n3i3hsTiX5JdXER0dwaL8EjhjYi+tPGLS9/cKEQE0Z/P1oOPGXMO6a0MVRuAo++pW7AUodEbo4OiL7OfjgNrj6Axh4/F4fxhKB2XOvXw5rvnD1kEdeD4mDYcNMWPkJbFwANSWuvrJ8EzQ2uEbpzAlubEPhSrf9xDvd+5su/FXFsPhtN/le3zE7f56/AcLC3b7+enjjaljxIUy4B2Y8gT+hP08M+gcvz8qHiq28EXM/Pq1k+clPc8JJpwNQvOAD4t+9ikjxU61RfOj7LjVHTmT5Nvg2r5RF+aX07xnLw5eMYdyA1quaTJB98w/4+E5ISHftUOEhSMp1lfD0qVCwDPofBdd+vPubmJpSiIqHsP1Y3ajq2uwWvw3H3ur+r/gb4Ilx7gbsR1P2rMPIblgiMHvOX+8u8K00GO+k6eK+6A33lLaENEjKdF1YN85zpYWz/uz2+epB9x8LXDI4/Go3E+vaL92zGiQMEvq5gXOFK+Dsv8CRP4Zv34K3r4MzH6Bu+EXUPns2keUbqI5IoAcVyEXPQmQMvHoppfGD+Uf8Lfw4/EMS178PvlS49DVIG8fsdcXc9p8FbCqt5srAxHyrCyooKK/ljJG9ufKoAaR034exEuVbIDxyxxiPg1FdFdSWQXzvzj92ox8eH+duEqq3wfdfgJHf6fzPKVjp/t6O/7l7WmBzqvDujbDoPzDmB7DgFfjOU3DYJTvvV7EVpv7F3YUPOxO+90L7SUvV/a3WlEDWdR1PHjVlsH46fPWA6youYa4Efu7D7jzeuhYu+bd7ANY+sERggsvfsOM/S6PfPb/5i/9zCQV13VdPvBPys2H20667KrjSxMATXImgNA8qtrheTVk/dNtV4dVLYP006JkBxWvh8jfdOInXLoWN891/mKRMuPr9HRfi/Lnw5g/df+qLnobh51FWU8897y3hnfn5+KIjODQpjGGSy7SNjRRIIsePSAcgt7iaLWU1nDQsmRtPHMyg5HbaRSoLqX/8KMRfR8M5D9NtzEWd//vdG81LWs3V17j14ZE77/vcGVC0GibOAV/Knn9O8VqY86xL6hc9AynDd91nxUfu+7roWfjij4G728/26rR2q7bcjb4vXgujvu+eCdL83LOfhw9+5kbhn3AHPHMqlG2Em7MhOt4lwq8fhRmPu67Ug05ynSxGXwIX/nP3F/faCldt8+0bbjnzdPjOv1q/KagphVWfut9z4Sr3/2Dbepccwf2Nn/gr11X87R+5v/vo7u6m5qez97l0YonA7H+bFsKMJ9x/pMwJO9Y3NsKm+dA9zT3Epz0lufD3o1xJ5bLXYMipbn1dFbz3E9iW45JDXNLO76sogNcvg7xsd4fYvR/UllNXuonI/FnIpoWgjdt3LyKBJ6N/zOrUM4iPieCzpVuo8zdy5sje9O8VS1l1PeU1DQxO8XHa8FQO7dedRbklVL96BYdXz2SVpjEyLIcvu53G8jG/YdTg/ozp34O4/d0uUV/tRpdPfxiGnQMX/n3HBbG2HJ45zb3+4eQdF6uvHoIv7nd3oiO/C997tv3PKVwNn/waVv1vxx1sWpZLyC2Tz4vnu4vfrQvdOJfJt8N1n0L/I933Ou1vkDwMRl64+89rbHQ3Fq31o1d1F84l78Coi2HR63D8L+DU37skN+9F+PguyDjWdZUOC3d/F8+cCsfcAv3Hu2qr0lwYcSGc8jtIGgJTH4LP74esa+Gcv+04r4Y6N71L4So3B1jxGnejE9vL/U7iUuCCxyHjeJdwG/0uhs/vh6oiQNwcYr0GQc+BLgEkZbok0pSg/Q0w5V6Y8VjrJZe9YInAHNxyZ7v/vP3Gdex99dXw7g2w9L0d68Kj3QVrwLHQ73BXLC/LhxWT3cXhrAdh/A0UVtTy/Nfr+PfMdfRoKOTQ6AIyIgqZUp7O8sb+JPmiOa5qCo9E/Z15Q39G3RE34f/yQY7Kf4GNjYncVn8T8ziEsek9uejwNM49rE+bczhpfTXffv4falZMoX88pMYKYeGRcMzNu7artKbR76o7vvgTlG+E5OGuLvzsv7C438UkxETQ/4ubYcm7EBbpGvmveg+KVrl5q0Zc6C5GX/4JrnjbleJ2Z/lk93sNC3ftSOOucb+/D38BF7/kqgWbbFkK/zgaTr3bJeS6SvjbCBh0Ipz7CLx5Nayb6vZtretyYyMsfdddREty3d9AxrGQcZx76FNkN5j3Eky6GU7+LZxwuxtQOe9FN25m9WdQsNx93xe/7MbQNHnvpzD/3+51ygg4568w4JhmX4q6LptfPwLdAklTGwPVnIHrpi/VlYQGnuCW8+e5cyrZAJGxriq0stA9sjb9GJhwN/QZ46o090Rl0c4x7wNLBMa7VN1/yohoiPJBVFzrDW711e6ucvkHrqGu50BY/Rm6bipSu2PKDUXISTuPd2QCP9n4ayL6jCTi2o/cRRFgwyz871xPWOkGZve9invLz2Pp1lpiIsM49ZBUxqf7OK3iPVILviYsthfEpVC8rZjoVR8Qp5WUahwlGoc/PJo+4aXE+CtoPPIGwk/5jWuXWTEZcr6G3oe5O+jEIbB6Cnz6O9f1N+0ImHCvu0i+dim65nMuqfs9R8bkcnvDU+5uN/kQeONKV/1RttFd2H4y0124/nGMu0v/yTcQFetel2xwd+ONfnfXPfUhdzG75GX3HG5wd7D/OgHqyl01RlMb06RbXDvSz5fuKIF8do+rhkno7zodnPNXd8Fe+h4cf7urvila5S6qs/4Jmxe5asTBJ7tR9vnzQP0QEePOc8M3rnRx5bvue/A3wGuXuGP2GgSn/cFN8d7ye68ocG1QQ89wCS28lUSt6qozC5a5ko+EudH6PQa4c+9zGMR03/k9teXus3NmwoYZ7nd40l0uQe5DY+++skRgzJ7wN7iJ/Oa96Ja7p8GQU9xFL3EIdO/rts16akfX2pumu4tNc7Xlrqph/r/RnhkU9D+Lt6vGsHJ9LhPrnmVw2CaWN/YnmjqSpRRB+SJsPNHjLue4Cd/lq9VFvDo7lwWr1nNH+Ov8IPxzasNi6KbVO+Jqmnm2ez8oy8ffI4NJyTfQ96iLGT/YVZP5K7dR+LejCGuooTsVrPZlMfIXH7m65nkvw6TAbC9XvLOjyq1pYOHQM93FP2em6z7c3Jgr3MU7cFdb72/km7VFHB22lIiXz3d35odf6Rpcpz/iepCd/9iO95dthEdGQ7cecMkrkD7eJZkPbnO/3/DoHc/37pHujjfqezuSbW2F68m2egqs+dwl8R99tnNVY10VrPsKBp+6T9MydCWWCIzZU6qukc6XCklDW7+DK81z7R8Zx+2Y+bU1Kz6CWf9yx2tsAKC+52CyD/kls8LH0dio+FXpERPJJePTd6k6KqqoZda6YnIXfcXAta8yp6Yfn2sW6ZmjOG+gcorOImHjdBZEjuHHyw6jsBqiwsN49NIxnDWqD89MW8u7kz9iUrd7qIzsxQml93LvpcdzwZh+7gMWvOouquOv3znu9ybC/Jddo/zAE1wVWniUuxDHJbtqlsDvpbFR+cWbC3l3fj7nju7D4+EPIys/dr/HxgZ3t33uI9C9z86fsXG+G93evJdS09138RqXfPuOcd9BUwIw+8QSgTGhVL3NjcPw18HoS/fqDlVVWbKxjPcXbeTDRZvI2+ZKB0m+aAorajkioyd3nHkID3y0nPkbtjHxlEz+9dUajs9M5unTI/FH9+Ti13NZtbWCj392Av3amgjQ3+C6krbTHVZV+cMHy3ju63UcNySJ6asLue7QcH5b+X9I+jGuC3Di4A6fqwkOSwTGdCGqypqCCr5YXkB2TjGnHJLC98f1JyxMqK7zc9Mrc/lyRQEJ3SL59LYTto+RyCmq5OxHp1FZ56dnbCRJvmhGp/Xg1lMzSU+MBVwp5JHPVrEwr4RxA3pyzOAkxqb3wBcdQXREGCKCquJvVP751Rr+8r+VXHvsQH537nAe/3w1f/t0JZcdmc7d542w52cfYCwRGOMh9f5GHp+yiiMHJnJc5s7dahfmlvD58q0UVdZSUF7LVysL8Dcql48fQO+EGJ78fDVV9e4Jdks2llHbsKOLrQhEhoVR39hI02XjO2P78dfvH0ZYmEsQD32ygr9/uYbIcGFk3wTGDejJGSN7kzWgJ2FhQoO/kXfm5fPCjPWM6Nud354znB6xVoe/P1giMMa0aktZDY98too3snPxNyonD0vmN+cMZ0hKPDX1fuZvKGHZpjKq6/3U1vup8ytR4UJkeBiJvmi+n5VGZLNZX1WVr1YW8M3aYublbGNhXgm1DY2k9ezG6SN68/nyLawvqiIzxce6wkp6xkXxp++MYsKIPRhT0orCiloW5pYwKi2BlHh7kl5bLBEYY9q0vrCS0up6Dmv2CNPOUFXXwCdLNvPOvHy+Xl3IsN7d+flpQ5kwPIUlG8u4/c2FLN9czoDEWJJ90ST5ounli6JnbCQ9Y6Oo9ysbS6rZWFJNSvdobj4lc/uDjr5ZW8TEV+dTWOF6GA1J8XHs4ES+n9V/p9lqm6gqZdUNFFTU0jshZo8mIVRVnvt6PYOS4zh5WAdGXHeCxkbl6zWFZA3otf0ZIPvCEoExJuSq6/zERIbtNAttXUMjL8xYx6K8UgoraimscLPQllTX429016aEbpH0SYhhbWElYQI3njiY6Ihw/vK/FQzoFcuvzx7O6oIKZq0tYubaImrqGzksLYGzRvWhuLKOdYWV5BRVkr+tmso6//bPTomPJjPVx88mDOWIjNYbxh/+dCWPTnFPz71twlBuPmXIfpva/OVvcvjdfxdz7JBEnr36iH1uc7FEYIw5qKgqZTUNRITJ9mk6coureODj5Xy4aBMAZ4/qzYMXjd7pedml1fW8Oy+PV2dvYOWWCqIiwhjQK5aMpDjSenajX49uJPqi2FRaw9qCSmauKWJreQ33X3golxyRvlMMr83ewF3vfMt3D+8HCu/Mz+eMkan8+PhB5G6rYn1hFZW1DURFhBEVEYa/UdlWVce2qnoOSY1n4ilDdpl6fU/ll1Rz+t++IrV7DOuKKjk+M5mnrhy3T8nAEoExpsvIXl9Mfkk15x/Wd7cXWlWlqLKOXrFRbd7Bl1bVM/G1eUxbVci1xw7k4iPSAFi2qYxfvLGQ4zOTeebqLCLChGenr+P/Ji8jUFBBBLpFhlPX0EhDoxImrvQSGxVBfkk1vz77EK4/oePdZ1WVa56fw+x1xfzvthOYsaaQX739LaceksI/rhhHVMTeTT5nicAYY3ajwd/I/R8u44UZ63daPzotgdd+fNROEwcu3VjG5rJqBiS6EkZ0hLtD9zcqAtt7T/301Xl8vHgzL107fpeeW+15e24ev3hzIXefN4IfHjsQgH9/k8Nv/7uYO84cxk9OGrJX52mJwBhj2pG9vpiCctfwLCIcl5m010+1q6xt4Dt//5qC8lrevPFolm4q5735+SzILSE6IoyYqHB6xUZxfGYyp41IZXifeFZuqWD66kIem7KKISk+3rzh6J1KM58t3cLxQ5O2J5+OskRgjDH72brCSs5/YjrlNW56kT4JMZyQmUyjKtX1fvK2VbMwrwRVV8VUXe8asjNTfPzrynHtPgujo9pKBPYQV2OMCYKBSXE8dWUWHy/exJmH9mH8wF67tFcUlNcyZdkWvs0v5bC0HhwzJJG0nrH7PVYrERhjjAe0VSII6pOZReRMEVkhIqtF5M5Wtv9cRJaKyCIRmSIiA4IZjzHGmF0FLRGISDjwJHAWMAK4TERGtNhtPpClqqOBt4A/ByseY4wxrQtmieBIYLWqrlXVOuB14ILmO6jqF6paFVj8BkgLYjzGGGNaEcxE0A/IbbacF1i3O9cBH7W2QUSuF5FsEckuKCjoxBCNMcYEtY1gT4nIFUAW8FBr21X1KVXNUtWs5OTk/RucMcZ0ccHsPpoP9G+2nBZYtxMRmQD8BjhRVWuDGI8xxphWBLNEMAfIFJGBIhIFXApMar6DiIwF/gWcr6pbgxiLMcaY3QhaIlDVBmAi8AmwDHhDVZeIyH0icn5gt4cAH/CmiCwQkUm7OZwxxpggOegGlIlIAZCzl29PAgo7MZyDhRfP24vnDN48by+eM3T8vAeoaquNrAddItgXIpK9u5F1XZkXz9uL5wzePG8vnjN07nkfEL2GjDHGhI4lAmOM8TivJYKnQh1AiHjxvL14zuDN8/biOUMnnren2giMMcbsymslAmOMMS1YIjDGGI/zTCJo79kIXYGI9BeRLwLPeFgiIrcG1vcSkU9FZFXg356hjrWziUi4iMwXkQ8CywNFZFbg+/5PYHR7lyIiPUTkLRFZLiLLRORoj3zXtwX+vheLyGsiEtPVvm8ReU5EtorI4mbrWv1uxXkscO6LROTwjn6eJxLBHj4boStoAH6hqiOAo4CfBs7zTmCKqmYCUwLLXc2tuBHsTR4EHlbVIcA23Oy2Xc2jwMeqeghwGO78u/R3LSL9gFtwzzE5FAjHTV/T1b7vF4AzW6zb3Xd7FpAZ+Lke+EdHP8wTiYA9eDZCV6Cqm1R1XuB1Oe7C0A93ri8GdnsRuDA0EQaHiKQB5wDPBJYFOAX3sCPomuecAJwAPAugqnWqWkIX/64DIoBuIhIBxAKb6GLft6pOBYpbrN7dd3sB8JI63wA9RKRPRz7PK4mgo89GOOiJSAYwFpgFpKrqpsCmzUBqiMIKlkeAO4DGwHIiUBKY7wq65vc9ECgAng9UiT0jInF08e9aVfOBvwAbcAmgFJhL1/++Yfff7T5f37ySCDxFRHzA28DPVLWs+TZ1/YW7TJ9hETkX2Kqqc0Mdy34WARwO/ENVxwKVtKgG6mrfNUCgXvwCXCLsC8SxaxVKl9fZ361XEsEePRuhKxCRSFwSeEVV3wms3tJUVAz825Wm/D4WOF9E1uOq/E7B1Z33CFQdQNf8vvOAPFWdFVh+C5cYuvJ3DTABWKeqBapaD7yD+xvo6t837P673efrm1cSQbvPRugKAnXjzwLLVPVvzTZNAq4OvL4aeG9/xxYsqnqXqqapagbue/1cVS8HvgC+F9itS50zgKpuBnJFZFhg1anAUrrwdx2wAThKRGIDf+9N592lv++A3X23k4CrAr2HjgJKm1Uh7RlV9cQPcDawElgD/CbU8QTpHI/DFRcXAQsCP2fj6synAKuAz4BeoY41SOd/EvBB4PUgYDawGngTiA51fEE43zFAduD7/i/Q0wvfNXAvsBxYDLwMRHe17xt4DdcGUo8r/V23u+8WEFyvyDXAt7geVR36PJtiwhhjPM4rVUPGGGN2wxKBMcZ4nCUCY4zxOEsExhjjcZYIjDHG4ywRGNOCiPhFZEGzn06buE1EMprPKGnMgSCi/V2M8ZxqVR0T6iCM2V+sRGDMHhKR9SLyZxH5VkRmi8iQwPoMEfk8MBf8FBFJD6xPFZF3RWRh4OeYwKHCReTpwJz6/xORbiE7KWOwRGBMa7q1qBq6pNm2UlUdBTyBm/UU4HHgRVUdDbwCPBZY/xjwlaoehpsHaElgfSbwpKqOBEqAi4J8Psa0yUYWG9OCiFSoqq+V9euBU1R1bWByv82qmigihUAfVa0PrN+kqkkiUgCkqWpts2NkAJ+qe7gIIvIrIFJV7w/+mRnTOisRGNMxupvXHVHb7LUfa6szIWaJwJiOuaTZvzMDr2fgZj4FuByYFng9BbgJtj9TOWF/BWlMR9idiDG76iYiC5otf6yqTV1Ie4rIItxd/WWBdTfjnhT2S9xTw34YWH8r8JSIXIe7878JN6OkMQcUayMwZg8F2giyVLUw1LEY05msasgYYzzOSgTGGONxViIwxhiPs0RgjDEeZ4nAGGM8zhKBMcZ4nCUCY4zxuP8HfHcGBGg93UYAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -347,18 +369,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1146729</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -385,18 +413,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1060992</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Рисунок 45"/>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -423,18 +457,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>937150</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Рисунок 46"/>
+        <xdr:cNvPr id="47" name="Рисунок 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -461,18 +501,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1006055</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Рисунок 47"/>
+        <xdr:cNvPr id="48" name="Рисунок 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -499,18 +545,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1137203</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>124188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Рисунок 48"/>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -537,18 +589,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1101351</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49"/>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -575,18 +633,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>994308</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>57504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Рисунок 50"/>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -613,18 +677,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1051466</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>57504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Рисунок 51"/>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -651,18 +721,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1022887</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>47977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Рисунок 52"/>
+        <xdr:cNvPr id="53" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -689,18 +765,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>908571</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>133688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Рисунок 53"/>
+        <xdr:cNvPr id="54" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -727,18 +809,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1756301</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Рисунок 54"/>
+        <xdr:cNvPr id="55" name="Рисунок 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -765,18 +853,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1746775</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Рисунок 55"/>
+        <xdr:cNvPr id="56" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -803,18 +897,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1737249</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Рисунок 56"/>
+        <xdr:cNvPr id="57" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -841,18 +941,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1936749</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1682749</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>6307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Рисунок 57"/>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -879,18 +985,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1775354</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>67030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Рисунок 58"/>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -917,18 +1029,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1613407</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>181319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Рисунок 59"/>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -955,18 +1073,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1784880</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>181319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Рисунок 60"/>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -993,18 +1117,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1746775</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>143214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Рисунок 61"/>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1031,18 +1161,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1737249</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>124161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Рисунок 62"/>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1069,18 +1205,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1546722</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>67003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1024" name="Рисунок 1023"/>
+        <xdr:cNvPr id="1024" name="Рисунок 1023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1107,18 +1249,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>67196</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Рисунок 1028"/>
+        <xdr:cNvPr id="1029" name="Рисунок 1028">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1145,18 +1293,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114828</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>67030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Рисунок 1029"/>
+        <xdr:cNvPr id="1030" name="Рисунок 1029">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1183,18 +1337,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>512</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Рисунок 1030"/>
+        <xdr:cNvPr id="1031" name="Рисунок 1030">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1221,18 +1381,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>537078</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>124161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1032" name="Рисунок 1031"/>
+        <xdr:cNvPr id="1032" name="Рисунок 1031">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1259,18 +1425,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594236</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>95609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Рисунок 1032"/>
+        <xdr:cNvPr id="1033" name="Рисунок 1032">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1297,18 +1469,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>518025</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>28898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Рисунок 1033"/>
+        <xdr:cNvPr id="1034" name="Рисунок 1033">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1335,18 +1513,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152933</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1035" name="Рисунок 1034"/>
+        <xdr:cNvPr id="1035" name="Рисунок 1034">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1373,18 +1557,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133880</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1036" name="Рисунок 1035"/>
+        <xdr:cNvPr id="1036" name="Рисунок 1035">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1411,18 +1601,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95775</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>38451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1037" name="Рисунок 1036"/>
+        <xdr:cNvPr id="1037" name="Рисунок 1036">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1449,18 +1645,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>441814</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>95582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1038" name="Рисунок 1037"/>
+        <xdr:cNvPr id="1038" name="Рисунок 1037">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1562,6 +1764,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1597,6 +1816,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1772,11 +2008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,13 +2027,13 @@
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1805,13 +2041,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1819,13 +2055,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1836,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1847,13 +2083,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1861,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -1875,52 +2111,38 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3">
-        <v>16</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
